--- a/admin/studentExcel.xlsx
+++ b/admin/studentExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/examreg.com/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CA6507-1509-6540-A4BB-DE46939888E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62687438-09A2-2A44-8C89-C6D92D1F222E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="8180" windowWidth="28040" windowHeight="10240" xr2:uid="{733AB529-799D-D847-BBC7-7A2907C12C92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{733AB529-799D-D847-BBC7-7A2907C12C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -39,9 +39,6 @@
     <t>ngaysinh</t>
   </si>
   <si>
-    <t>dudieukienduthi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trình Đức </t>
   </si>
   <si>
@@ -58,6 +55,30 @@
   </si>
   <si>
     <t>Giang</t>
+  </si>
+  <si>
+    <t>Lê Đình</t>
+  </si>
+  <si>
+    <t>Thiện</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Nhật</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Nhật </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quỳnh </t>
+  </si>
+  <si>
+    <t>Mai</t>
   </si>
 </sst>
 </file>
@@ -65,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,7 +119,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F21BFF-2F5C-FB46-9BC1-3A1848A88A44}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,7 +448,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,59 +461,103 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17021357</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>36317</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>17021353</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>36283</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>17021345</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>36434</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17023456</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>36344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>17026457</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>17028912</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>36347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>17023451</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>36378</v>
       </c>
     </row>
   </sheetData>

--- a/admin/studentExcel.xlsx
+++ b/admin/studentExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/examreg.com/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62687438-09A2-2A44-8C89-C6D92D1F222E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46198726-AC30-6040-9AB1-9926E74E8B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{733AB529-799D-D847-BBC7-7A2907C12C92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{733AB529-799D-D847-BBC7-7A2907C12C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,33 @@
   </si>
   <si>
     <t>Mai</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>punctual</t>
+  </si>
+  <si>
+    <t>pangram</t>
+  </si>
+  <si>
+    <t>selector</t>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>salvation</t>
+  </si>
+  <si>
+    <t>conclusion</t>
   </si>
 </sst>
 </file>
@@ -434,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F21BFF-2F5C-FB46-9BC1-3A1848A88A44}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,7 +475,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +488,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17021357</v>
       </c>
@@ -475,8 +508,14 @@
       <c r="D2" s="1">
         <v>36317</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>17021353</v>
       </c>
@@ -489,8 +528,14 @@
       <c r="D3" s="1">
         <v>36283</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>17021345</v>
       </c>
@@ -503,8 +548,14 @@
       <c r="D4" s="1">
         <v>36434</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>799</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>17023456</v>
       </c>
@@ -517,8 +568,14 @@
       <c r="D5" s="1">
         <v>36344</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>292</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>17026457</v>
       </c>
@@ -531,8 +588,14 @@
       <c r="D6" s="1">
         <v>36253</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>17028912</v>
       </c>
@@ -545,8 +608,14 @@
       <c r="D7" s="1">
         <v>36347</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>963</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17023451</v>
       </c>
@@ -558,6 +627,12 @@
       </c>
       <c r="D8" s="1">
         <v>36378</v>
+      </c>
+      <c r="E8">
+        <v>878</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
